--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Test Step</t>
   </si>
@@ -23,82 +23,127 @@
     <t>Action</t>
   </si>
   <si>
+    <t>LocatorType</t>
+  </si>
+  <si>
+    <t>LocatorValue</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>open browser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Launch application</t>
+  </si>
+  <si>
+    <t>Navigate to Url</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>Sendkeys</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Click login btn</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//button[contains(@class,'oxd-button oxd-button--medium oxd-button--main orangehrm-login-button')]</t>
+  </si>
+  <si>
+    <t>Click Admin Facet</t>
+  </si>
+  <si>
+    <t>(//a[contains(@class,'oxd-main-menu-item')])[1]</t>
+  </si>
+  <si>
+    <t>Get First UserName</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>(//div[@class='oxd-table-row oxd-table-row--with-border'])[2]//div[2]//div</t>
+  </si>
+  <si>
+    <t>Enter Admin UserName</t>
+  </si>
+  <si>
+    <t>(//div//input[contains(@class,'oxd-input oxd-input--active')])[2]</t>
+  </si>
+  <si>
+    <t>SearchUserName</t>
+  </si>
+  <si>
+    <t>//button[contains(@class,'oxd-button oxd-button--medium oxd-button--secondary orangehrm-left-space')]</t>
+  </si>
+  <si>
+    <t>Click User Profile</t>
+  </si>
+  <si>
+    <t>//i[contains(@class,'oxd-icon bi-caret-down-fill oxd-userdropdown-icon')]</t>
+  </si>
+  <si>
+    <t>Click LogOut</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Logout')]</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
     <t>Locator</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Open Browser</t>
-  </si>
-  <si>
-    <t>open browser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Launch application</t>
-  </si>
-  <si>
-    <t>Navigate to Url</t>
-  </si>
-  <si>
-    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
-  </si>
-  <si>
-    <t>Enter username</t>
-  </si>
-  <si>
-    <t>Sendkeys</t>
-  </si>
-  <si>
     <t>name=username</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
     <t>name=password</t>
   </si>
   <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>Click login btn</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>xpath=//button[contains(@class,'oxd-button oxd-button--medium oxd-button--main orangehrm-login-button')]</t>
-  </si>
-  <si>
-    <t>Click Admin Facet</t>
-  </si>
-  <si>
-    <t>href=/web/index.php/admin/viewAdminModule</t>
-  </si>
-  <si>
-    <t>Enter Admin UserName</t>
-  </si>
-  <si>
-    <t>xpath=(//div//input[contains(@class,'oxd-input oxd-input--active')])[2]</t>
-  </si>
-  <si>
-    <t>HarryPotter</t>
-  </si>
-  <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
-    <t>quit</t>
   </si>
 </sst>
 </file>
@@ -106,10 +151,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,45 +174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +189,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -205,15 +250,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +272,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -236,7 +296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,21 +304,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +539,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,15 +559,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +602,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -574,15 +628,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -596,152 +641,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,9 +794,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1076,21 +1118,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="20.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="11.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="69.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="55.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="69.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,117 +1146,210 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1247,80 +1383,80 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
